--- a/mfa/S_cerevisiae/run_files/FY4_batch/data_expmt2.xlsx
+++ b/mfa/S_cerevisiae/run_files/FY4_batch/data_expmt2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MSData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="300">
   <si>
     <t xml:space="preserve">fragment name</t>
   </si>
@@ -60,7 +60,7 @@
     <t xml:space="preserve">0.433729 0.006631 0.412187 0.004975 0.130857 0.000472 0.011138 1.1e-05</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+    <t xml:space="preserve">0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
   </si>
   <si>
     <t xml:space="preserve">2-isopropylmaleate</t>
@@ -81,7 +81,7 @@
     <t xml:space="preserve">0.54095 0.012114 0.376994 0.005287 0.064158 0.000497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+    <t xml:space="preserve">0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
   </si>
   <si>
     <t xml:space="preserve">alpha-ketoisovalerate</t>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">0.479458 0.002872 0.51767 0.0 0.0 0.0 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.027605 0.027605 0.027605 0.027605 0.027605 0.027605 0.027605</t>
+    <t xml:space="preserve">0.028505 0.028505 0.028505 0.028505 0.028505 0.028505 0.028505</t>
   </si>
   <si>
     <t xml:space="preserve">6-phospho-D-gluconate</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">0.73458 0.005223 0.258712 0.001485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0046 0.0046 0.0046 0.0046</t>
+    <t xml:space="preserve">0.00475 0.00475 0.00475 0.00475</t>
   </si>
   <si>
     <t xml:space="preserve">L-alanine</t>
@@ -159,7 +159,7 @@
     <t xml:space="preserve">0.197521 0.32764 0.25847 0.1411 0.056013 0.016979 0.002278 0.0 0.0 0.0 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682 0.00682</t>
+    <t xml:space="preserve">0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043 0.007043</t>
   </si>
   <si>
     <t xml:space="preserve">AMP</t>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">0.552594 0.025412 0.352034 0.013587 0.05457 0.001803 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+    <t xml:space="preserve">0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
   </si>
   <si>
     <t xml:space="preserve">L-arginine</t>
@@ -198,7 +198,7 @@
     <t xml:space="preserve">0.734947 0.011889 0.249501 0.003575 8.8e-05</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0046 0.0046 0.0046 0.0046 0.0046</t>
+    <t xml:space="preserve">0.00475 0.00475 0.00475 0.00475 0.00475</t>
   </si>
   <si>
     <t xml:space="preserve">L-aspartate</t>
@@ -243,7 +243,7 @@
     <t xml:space="preserve">0.72268 0.0 0.27732 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.009275 0.009275 0.009275 0.009275</t>
+    <t xml:space="preserve">0.009578 0.009578 0.009578 0.009578</t>
   </si>
   <si>
     <t xml:space="preserve">dihydroxyacetone P</t>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">0.539661 0.0 0.43072 0.002384 0.026937 0.0 0.000298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.006889 0.006889 0.006889 0.006889 0.006889 0.006889 0.006889</t>
+    <t xml:space="preserve">0.007113 0.007113 0.007113 0.007113 0.007113 0.007113 0.007113</t>
   </si>
   <si>
     <t xml:space="preserve">fructose 16BP</t>
@@ -294,7 +294,7 @@
     <t xml:space="preserve">0.726519 0.001061 0.27242 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.006886 0.006886 0.006886 0.006886</t>
+    <t xml:space="preserve">0.00711 0.00711 0.00711 0.00711</t>
   </si>
   <si>
     <t xml:space="preserve">glyceraldehyde 3P</t>
@@ -324,7 +324,7 @@
     <t xml:space="preserve">0.511753 0.0 0.488247 0.0 0.0 0.0 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.005836 0.005836 0.005836 0.005836 0.005836 0.005836 0.005836</t>
+    <t xml:space="preserve">0.006026 0.006026 0.006026 0.006026 0.006026 0.006026 0.006026</t>
   </si>
   <si>
     <t xml:space="preserve">alpha-D-glucosamine 6-phosphate</t>
@@ -375,7 +375,7 @@
     <t xml:space="preserve">0.751074 0.245916 0.00301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0046 0.0046 0.0046</t>
+    <t xml:space="preserve">0.00475 0.00475 0.00475</t>
   </si>
   <si>
     <t xml:space="preserve">L-glycine</t>
@@ -438,7 +438,7 @@
     <t xml:space="preserve">0.194291 0.335904 0.272341 0.128647 0.05182 0.0155 0.001498 0.0 0.0 0.0 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.011278 0.011278 0.011278 0.011278 0.011278 0.011278 0.011278 0.011278 0.011278 0.011278 0.011278</t>
+    <t xml:space="preserve">0.011646 0.011646 0.011646 0.011646 0.011646 0.011646 0.011646 0.011646 0.011646 0.011646 0.011646</t>
   </si>
   <si>
     <t xml:space="preserve">IMP</t>
@@ -498,7 +498,7 @@
     <t xml:space="preserve">0.555272 0.195427 0.188232 0.060058 0.001012 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.006479 0.006479 0.006479 0.006479 0.006479 0.006479</t>
+    <t xml:space="preserve">0.00669 0.00669 0.00669 0.00669 0.00669 0.00669</t>
   </si>
   <si>
     <t xml:space="preserve">L-methionine</t>
@@ -531,7 +531,7 @@
     <t xml:space="preserve">0.752746 0.007139 0.240114 1e-06</t>
   </si>
   <si>
-    <t xml:space="preserve">0.088162 0.088162 0.088162 0.088162</t>
+    <t xml:space="preserve">0.091037 0.091037 0.091037 0.091037</t>
   </si>
   <si>
     <t xml:space="preserve">phosphoenolpyruvate</t>
@@ -552,7 +552,7 @@
     <t xml:space="preserve">0.497403 0.0337 0.360307 0.026869 0.077109 0.0 0.004611 0.0 0.0 1e-06</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+    <t xml:space="preserve">0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
   </si>
   <si>
     <t xml:space="preserve">L-phenylalanine</t>
@@ -570,7 +570,7 @@
     <t xml:space="preserve">0.507054 0.026648 0.370644 0.016658 0.078078 0.000919 0.0 0.0 0.0 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.014595 0.014595 0.014595 0.014595 0.014595 0.014595 0.014595 0.014595 0.014595 0.014595</t>
+    <t xml:space="preserve">0.015071 0.015071 0.015071 0.015071 0.015071 0.015071 0.015071 0.015071 0.015071 0.015071</t>
   </si>
   <si>
     <t xml:space="preserve">keto-phenylpyruvate</t>
@@ -618,7 +618,7 @@
     <t xml:space="preserve">0.431477 0.319912 0.176882 0.05477 0.016959 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.005681 0.005681 0.005681 0.005681 0.005681 0.005681</t>
+    <t xml:space="preserve">0.005866 0.005866 0.005866 0.005866 0.005866 0.005866</t>
   </si>
   <si>
     <t xml:space="preserve">ribose 5P</t>
@@ -636,7 +636,7 @@
     <t xml:space="preserve">0.323678 0.239575 0.305479 0.087785 0.036149 0.007334 0.0 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.006891 0.006891 0.006891 0.006891 0.006891 0.006891 0.006891 0.006891</t>
+    <t xml:space="preserve">0.007116 0.007116 0.007116 0.007116 0.007116 0.007116 0.007116 0.007116</t>
   </si>
   <si>
     <t xml:space="preserve">sedoheptulose 7P</t>
@@ -654,7 +654,7 @@
     <t xml:space="preserve">0.719795 0.078066 0.202139 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.011775 0.011775 0.011775 0.011775</t>
+    <t xml:space="preserve">0.012159 0.012159 0.012159 0.012159</t>
   </si>
   <si>
     <t xml:space="preserve">L-serine</t>
@@ -705,7 +705,7 @@
     <t xml:space="preserve">0.249552 0.211472 0.256848 0.149322 0.0833 0.032219 0.009853 0.000936 0.0 0.0 0.006498 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.005562 0.005562 0.005562 0.005562 0.005562 0.005562 0.005562 0.005562 0.005562 0.005562 0.005562 0.005562</t>
+    <t xml:space="preserve">0.005744 0.005744 0.005744 0.005744 0.005744 0.005744 0.005744 0.005744 0.005744 0.005744 0.005744 0.005744</t>
   </si>
   <si>
     <t xml:space="preserve">L-tryptophan</t>
@@ -738,7 +738,7 @@
     <t xml:space="preserve">0.31995 0.25491 0.235364 0.126925 0.048859 0.010862 0.003131 0.0 0.0 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.005915 0.005915 0.005915 0.005915 0.005915 0.005915 0.005915 0.005915 0.005915 0.005915</t>
+    <t xml:space="preserve">0.006108 0.006108 0.006108 0.006108 0.006108 0.006108 0.006108 0.006108 0.006108 0.006108</t>
   </si>
   <si>
     <t xml:space="preserve">UTP</t>
@@ -766,18 +766,6 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_glc__D_e.f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOMASS.f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_etoh_e.f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_ac_e.f</t>
   </si>
   <si>
     <t xml:space="preserve">DIL_2ippm_d2.f</t>
@@ -1023,17 +1011,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1055,10 +1039,10 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2:E43"/>
+      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2098,7 +2082,7 @@
       <c r="C35" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="0" t="s">
         <v>197</v>
       </c>
       <c r="E35" s="0" t="s">
@@ -2374,12 +2358,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="E2:E43 A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2403,10 +2387,10 @@
         <v>248</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>25.55</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2.555</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,10 +2398,10 @@
         <v>249</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.255</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,10 +2409,10 @@
         <v>250</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>40.92</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4.092</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,10 +2420,10 @@
         <v>251</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1.22</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.122</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,50 +2841,6 @@
         <v>100</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C47" s="0" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -2922,8 +2862,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E43 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2936,33 +2876,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.5</v>
@@ -2971,7 +2911,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>100</v>
